--- a/labdata/4.18/实验3/准确召回.xlsx
+++ b/labdata/4.18/实验3/准确召回.xlsx
@@ -460,13 +460,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
